--- a/0_0_Data/2_Processed_Data/1_rt_GVA_series/absolute_rt_GVA_data.xlsx
+++ b/0_0_Data/2_Processed_Data/1_rt_GVA_series/absolute_rt_GVA_data.xlsx
@@ -380,13 +380,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CC139"/>
+  <dimension ref="A1:CD140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:81">
+    <row r="1" spans="1:82">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,8 +630,11 @@
       <c r="CC1" s="2">
         <v>45891</v>
       </c>
+      <c r="CD1" s="2">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:81">
+    <row r="2" spans="1:82">
       <c r="A2" s="2">
         <v>33284</v>
       </c>
@@ -875,8 +878,11 @@
       <c r="CC2">
         <v>70.45</v>
       </c>
+      <c r="CD2">
+        <v>70.45999999999999</v>
+      </c>
     </row>
-    <row r="3" spans="1:81">
+    <row r="3" spans="1:82">
       <c r="A3" s="2">
         <v>33374</v>
       </c>
@@ -1120,8 +1126,11 @@
       <c r="CC3">
         <v>69.75</v>
       </c>
+      <c r="CD3">
+        <v>69.75</v>
+      </c>
     </row>
-    <row r="4" spans="1:81">
+    <row r="4" spans="1:82">
       <c r="A4" s="2">
         <v>33465</v>
       </c>
@@ -1365,8 +1374,11 @@
       <c r="CC4">
         <v>69.66</v>
       </c>
+      <c r="CD4">
+        <v>69.66</v>
+      </c>
     </row>
-    <row r="5" spans="1:81">
+    <row r="5" spans="1:82">
       <c r="A5" s="2">
         <v>33557</v>
       </c>
@@ -1610,8 +1622,11 @@
       <c r="CC5">
         <v>70.61</v>
       </c>
+      <c r="CD5">
+        <v>70.61</v>
+      </c>
     </row>
-    <row r="6" spans="1:81">
+    <row r="6" spans="1:82">
       <c r="A6" s="2">
         <v>33649</v>
       </c>
@@ -1855,8 +1870,11 @@
       <c r="CC6">
         <v>71.76000000000001</v>
       </c>
+      <c r="CD6">
+        <v>71.77</v>
+      </c>
     </row>
-    <row r="7" spans="1:81">
+    <row r="7" spans="1:82">
       <c r="A7" s="2">
         <v>33740</v>
       </c>
@@ -2100,8 +2118,11 @@
       <c r="CC7">
         <v>71.27</v>
       </c>
+      <c r="CD7">
+        <v>71.27</v>
+      </c>
     </row>
-    <row r="8" spans="1:81">
+    <row r="8" spans="1:82">
       <c r="A8" s="2">
         <v>33831</v>
       </c>
@@ -2345,8 +2366,11 @@
       <c r="CC8">
         <v>71.12</v>
       </c>
+      <c r="CD8">
+        <v>71.13</v>
+      </c>
     </row>
-    <row r="9" spans="1:81">
+    <row r="9" spans="1:82">
       <c r="A9" s="2">
         <v>33923</v>
       </c>
@@ -2590,8 +2614,11 @@
       <c r="CC9">
         <v>70.72</v>
       </c>
+      <c r="CD9">
+        <v>70.72</v>
+      </c>
     </row>
-    <row r="10" spans="1:81">
+    <row r="10" spans="1:82">
       <c r="A10" s="2">
         <v>34015</v>
       </c>
@@ -2835,8 +2862,11 @@
       <c r="CC10">
         <v>70.31</v>
       </c>
+      <c r="CD10">
+        <v>70.31</v>
+      </c>
     </row>
-    <row r="11" spans="1:81">
+    <row r="11" spans="1:82">
       <c r="A11" s="2">
         <v>34105</v>
       </c>
@@ -3080,8 +3110,11 @@
       <c r="CC11">
         <v>70.23999999999999</v>
       </c>
+      <c r="CD11">
+        <v>70.23999999999999</v>
+      </c>
     </row>
-    <row r="12" spans="1:81">
+    <row r="12" spans="1:82">
       <c r="A12" s="2">
         <v>34196</v>
       </c>
@@ -3325,8 +3358,11 @@
       <c r="CC12">
         <v>70.47</v>
       </c>
+      <c r="CD12">
+        <v>70.47</v>
+      </c>
     </row>
-    <row r="13" spans="1:81">
+    <row r="13" spans="1:82">
       <c r="A13" s="2">
         <v>34288</v>
       </c>
@@ -3570,8 +3606,11 @@
       <c r="CC13">
         <v>70.41</v>
       </c>
+      <c r="CD13">
+        <v>70.41</v>
+      </c>
     </row>
-    <row r="14" spans="1:81">
+    <row r="14" spans="1:82">
       <c r="A14" s="2">
         <v>34380</v>
       </c>
@@ -3815,8 +3854,11 @@
       <c r="CC14">
         <v>71.03</v>
       </c>
+      <c r="CD14">
+        <v>71.04000000000001</v>
+      </c>
     </row>
-    <row r="15" spans="1:81">
+    <row r="15" spans="1:82">
       <c r="A15" s="2">
         <v>34470</v>
       </c>
@@ -4060,8 +4102,11 @@
       <c r="CC15">
         <v>71.73</v>
       </c>
+      <c r="CD15">
+        <v>71.73</v>
+      </c>
     </row>
-    <row r="16" spans="1:81">
+    <row r="16" spans="1:82">
       <c r="A16" s="2">
         <v>34561</v>
       </c>
@@ -4305,8 +4350,11 @@
       <c r="CC16">
         <v>72.15000000000001</v>
       </c>
+      <c r="CD16">
+        <v>72.15000000000001</v>
+      </c>
     </row>
-    <row r="17" spans="1:81">
+    <row r="17" spans="1:82">
       <c r="A17" s="2">
         <v>34653</v>
       </c>
@@ -4550,8 +4598,11 @@
       <c r="CC17">
         <v>73.04000000000001</v>
       </c>
+      <c r="CD17">
+        <v>73.04000000000001</v>
+      </c>
     </row>
-    <row r="18" spans="1:81">
+    <row r="18" spans="1:82">
       <c r="A18" s="2">
         <v>34745</v>
       </c>
@@ -4795,8 +4846,11 @@
       <c r="CC18">
         <v>72.70999999999999</v>
       </c>
+      <c r="CD18">
+        <v>72.70999999999999</v>
+      </c>
     </row>
-    <row r="19" spans="1:81">
+    <row r="19" spans="1:82">
       <c r="A19" s="2">
         <v>34835</v>
       </c>
@@ -5040,8 +5094,11 @@
       <c r="CC19">
         <v>73.38</v>
       </c>
+      <c r="CD19">
+        <v>73.38</v>
+      </c>
     </row>
-    <row r="20" spans="1:81">
+    <row r="20" spans="1:82">
       <c r="A20" s="2">
         <v>34926</v>
       </c>
@@ -5285,8 +5342,11 @@
       <c r="CC20">
         <v>73.56999999999999</v>
       </c>
+      <c r="CD20">
+        <v>73.56999999999999</v>
+      </c>
     </row>
-    <row r="21" spans="1:81">
+    <row r="21" spans="1:82">
       <c r="A21" s="2">
         <v>35018</v>
       </c>
@@ -5530,8 +5590,11 @@
       <c r="CC21">
         <v>73.73</v>
       </c>
+      <c r="CD21">
+        <v>73.73</v>
+      </c>
     </row>
-    <row r="22" spans="1:81">
+    <row r="22" spans="1:82">
       <c r="A22" s="2">
         <v>35110</v>
       </c>
@@ -5775,8 +5838,11 @@
       <c r="CC22">
         <v>72.66</v>
       </c>
+      <c r="CD22">
+        <v>72.65000000000001</v>
+      </c>
     </row>
-    <row r="23" spans="1:81">
+    <row r="23" spans="1:82">
       <c r="A23" s="2">
         <v>35201</v>
       </c>
@@ -6020,8 +6086,11 @@
       <c r="CC23">
         <v>74.05</v>
       </c>
+      <c r="CD23">
+        <v>74.05</v>
+      </c>
     </row>
-    <row r="24" spans="1:81">
+    <row r="24" spans="1:82">
       <c r="A24" s="2">
         <v>35292</v>
       </c>
@@ -6265,8 +6334,11 @@
       <c r="CC24">
         <v>74.08</v>
       </c>
+      <c r="CD24">
+        <v>74.08</v>
+      </c>
     </row>
-    <row r="25" spans="1:81">
+    <row r="25" spans="1:82">
       <c r="A25" s="2">
         <v>35384</v>
       </c>
@@ -6510,8 +6582,11 @@
       <c r="CC25">
         <v>75.08</v>
       </c>
+      <c r="CD25">
+        <v>75.08</v>
+      </c>
     </row>
-    <row r="26" spans="1:81">
+    <row r="26" spans="1:82">
       <c r="A26" s="2">
         <v>35476</v>
       </c>
@@ -6755,8 +6830,11 @@
       <c r="CC26">
         <v>74.45999999999999</v>
       </c>
+      <c r="CD26">
+        <v>74.45999999999999</v>
+      </c>
     </row>
-    <row r="27" spans="1:81">
+    <row r="27" spans="1:82">
       <c r="A27" s="2">
         <v>35566</v>
       </c>
@@ -7000,8 +7078,11 @@
       <c r="CC27">
         <v>75.40000000000001</v>
       </c>
+      <c r="CD27">
+        <v>75.40000000000001</v>
+      </c>
     </row>
-    <row r="28" spans="1:81">
+    <row r="28" spans="1:82">
       <c r="A28" s="2">
         <v>35657</v>
       </c>
@@ -7245,8 +7326,11 @@
       <c r="CC28">
         <v>75.73</v>
       </c>
+      <c r="CD28">
+        <v>75.73</v>
+      </c>
     </row>
-    <row r="29" spans="1:81">
+    <row r="29" spans="1:82">
       <c r="A29" s="2">
         <v>35749</v>
       </c>
@@ -7490,8 +7574,11 @@
       <c r="CC29">
         <v>76.65000000000001</v>
       </c>
+      <c r="CD29">
+        <v>76.65000000000001</v>
+      </c>
     </row>
-    <row r="30" spans="1:81">
+    <row r="30" spans="1:82">
       <c r="A30" s="2">
         <v>35841</v>
       </c>
@@ -7735,8 +7822,11 @@
       <c r="CC30">
         <v>77.09</v>
       </c>
+      <c r="CD30">
+        <v>77.09</v>
+      </c>
     </row>
-    <row r="31" spans="1:81">
+    <row r="31" spans="1:82">
       <c r="A31" s="2">
         <v>35931</v>
       </c>
@@ -7980,8 +8070,11 @@
       <c r="CC31">
         <v>76.73</v>
       </c>
+      <c r="CD31">
+        <v>76.73999999999999</v>
+      </c>
     </row>
-    <row r="32" spans="1:81">
+    <row r="32" spans="1:82">
       <c r="A32" s="2">
         <v>36022</v>
       </c>
@@ -8225,8 +8318,11 @@
       <c r="CC32">
         <v>77.13</v>
       </c>
+      <c r="CD32">
+        <v>77.14</v>
+      </c>
     </row>
-    <row r="33" spans="1:81">
+    <row r="33" spans="1:82">
       <c r="A33" s="2">
         <v>36114</v>
       </c>
@@ -8470,8 +8566,11 @@
       <c r="CC33">
         <v>77.34</v>
       </c>
+      <c r="CD33">
+        <v>77.34</v>
+      </c>
     </row>
-    <row r="34" spans="1:81">
+    <row r="34" spans="1:82">
       <c r="A34" s="2">
         <v>36206</v>
       </c>
@@ -8715,8 +8814,11 @@
       <c r="CC34">
         <v>77.89</v>
       </c>
+      <c r="CD34">
+        <v>77.88</v>
+      </c>
     </row>
-    <row r="35" spans="1:81">
+    <row r="35" spans="1:82">
       <c r="A35" s="2">
         <v>36296</v>
       </c>
@@ -8960,8 +9062,11 @@
       <c r="CC35">
         <v>77.84999999999999</v>
       </c>
+      <c r="CD35">
+        <v>77.86</v>
+      </c>
     </row>
-    <row r="36" spans="1:81">
+    <row r="36" spans="1:82">
       <c r="A36" s="2">
         <v>36387</v>
       </c>
@@ -9205,8 +9310,11 @@
       <c r="CC36">
         <v>78.84</v>
       </c>
+      <c r="CD36">
+        <v>78.84</v>
+      </c>
     </row>
-    <row r="37" spans="1:81">
+    <row r="37" spans="1:82">
       <c r="A37" s="2">
         <v>36479</v>
       </c>
@@ -9450,8 +9558,11 @@
       <c r="CC37">
         <v>79.18000000000001</v>
       </c>
+      <c r="CD37">
+        <v>79.18000000000001</v>
+      </c>
     </row>
-    <row r="38" spans="1:81">
+    <row r="38" spans="1:82">
       <c r="A38" s="2">
         <v>36571</v>
       </c>
@@ -9695,8 +9806,11 @@
       <c r="CC38">
         <v>80.52</v>
       </c>
+      <c r="CD38">
+        <v>80.51000000000001</v>
+      </c>
     </row>
-    <row r="39" spans="1:81">
+    <row r="39" spans="1:82">
       <c r="A39" s="2">
         <v>36662</v>
       </c>
@@ -9940,8 +10054,11 @@
       <c r="CC39">
         <v>81.11</v>
       </c>
+      <c r="CD39">
+        <v>81.11</v>
+      </c>
     </row>
-    <row r="40" spans="1:81">
+    <row r="40" spans="1:82">
       <c r="A40" s="2">
         <v>36753</v>
       </c>
@@ -10185,8 +10302,11 @@
       <c r="CC40">
         <v>81.45999999999999</v>
       </c>
+      <c r="CD40">
+        <v>81.45999999999999</v>
+      </c>
     </row>
-    <row r="41" spans="1:81">
+    <row r="41" spans="1:82">
       <c r="A41" s="2">
         <v>36845</v>
       </c>
@@ -10430,8 +10550,11 @@
       <c r="CC41">
         <v>81.20999999999999</v>
       </c>
+      <c r="CD41">
+        <v>81.20999999999999</v>
+      </c>
     </row>
-    <row r="42" spans="1:81">
+    <row r="42" spans="1:82">
       <c r="A42" s="2">
         <v>36937</v>
       </c>
@@ -10675,8 +10798,11 @@
       <c r="CC42">
         <v>82.97</v>
       </c>
+      <c r="CD42">
+        <v>82.97</v>
+      </c>
     </row>
-    <row r="43" spans="1:81">
+    <row r="43" spans="1:82">
       <c r="A43" s="2">
         <v>37027</v>
       </c>
@@ -10920,8 +11046,11 @@
       <c r="CC43">
         <v>82.58</v>
       </c>
+      <c r="CD43">
+        <v>82.58</v>
+      </c>
     </row>
-    <row r="44" spans="1:81">
+    <row r="44" spans="1:82">
       <c r="A44" s="2">
         <v>37118</v>
       </c>
@@ -11165,8 +11294,11 @@
       <c r="CC44">
         <v>82.81</v>
       </c>
+      <c r="CD44">
+        <v>82.81</v>
+      </c>
     </row>
-    <row r="45" spans="1:81">
+    <row r="45" spans="1:82">
       <c r="A45" s="2">
         <v>37210</v>
       </c>
@@ -11410,8 +11542,11 @@
       <c r="CC45">
         <v>82.73</v>
       </c>
+      <c r="CD45">
+        <v>82.73</v>
+      </c>
     </row>
-    <row r="46" spans="1:81">
+    <row r="46" spans="1:82">
       <c r="A46" s="2">
         <v>37302</v>
       </c>
@@ -11655,8 +11790,11 @@
       <c r="CC46">
         <v>82.40000000000001</v>
       </c>
+      <c r="CD46">
+        <v>82.40000000000001</v>
+      </c>
     </row>
-    <row r="47" spans="1:81">
+    <row r="47" spans="1:82">
       <c r="A47" s="2">
         <v>37392</v>
       </c>
@@ -11900,8 +12038,11 @@
       <c r="CC47">
         <v>82.72</v>
       </c>
+      <c r="CD47">
+        <v>82.72</v>
+      </c>
     </row>
-    <row r="48" spans="1:81">
+    <row r="48" spans="1:82">
       <c r="A48" s="2">
         <v>37483</v>
       </c>
@@ -12145,8 +12286,11 @@
       <c r="CC48">
         <v>83.05</v>
       </c>
+      <c r="CD48">
+        <v>83.05</v>
+      </c>
     </row>
-    <row r="49" spans="1:81">
+    <row r="49" spans="1:82">
       <c r="A49" s="2">
         <v>37575</v>
       </c>
@@ -12390,8 +12534,11 @@
       <c r="CC49">
         <v>83.22</v>
       </c>
+      <c r="CD49">
+        <v>83.22</v>
+      </c>
     </row>
-    <row r="50" spans="1:81">
+    <row r="50" spans="1:82">
       <c r="A50" s="2">
         <v>37667</v>
       </c>
@@ -12635,8 +12782,11 @@
       <c r="CC50">
         <v>81.88</v>
       </c>
+      <c r="CD50">
+        <v>81.88</v>
+      </c>
     </row>
-    <row r="51" spans="1:81">
+    <row r="51" spans="1:82">
       <c r="A51" s="2">
         <v>37757</v>
       </c>
@@ -12880,8 +13030,11 @@
       <c r="CC51">
         <v>81.86</v>
       </c>
+      <c r="CD51">
+        <v>81.86</v>
+      </c>
     </row>
-    <row r="52" spans="1:81">
+    <row r="52" spans="1:82">
       <c r="A52" s="2">
         <v>37848</v>
       </c>
@@ -13125,8 +13278,11 @@
       <c r="CC52">
         <v>82.89</v>
       </c>
+      <c r="CD52">
+        <v>82.89</v>
+      </c>
     </row>
-    <row r="53" spans="1:81">
+    <row r="53" spans="1:82">
       <c r="A53" s="2">
         <v>37940</v>
       </c>
@@ -13370,8 +13526,11 @@
       <c r="CC53">
         <v>82.98</v>
       </c>
+      <c r="CD53">
+        <v>82.98</v>
+      </c>
     </row>
-    <row r="54" spans="1:81">
+    <row r="54" spans="1:82">
       <c r="A54" s="2">
         <v>38032</v>
       </c>
@@ -13615,8 +13774,11 @@
       <c r="CC54">
         <v>82.79000000000001</v>
       </c>
+      <c r="CD54">
+        <v>82.79000000000001</v>
+      </c>
     </row>
-    <row r="55" spans="1:81">
+    <row r="55" spans="1:82">
       <c r="A55" s="2">
         <v>38123</v>
       </c>
@@ -13860,8 +14022,11 @@
       <c r="CC55">
         <v>83.69</v>
       </c>
+      <c r="CD55">
+        <v>83.69</v>
+      </c>
     </row>
-    <row r="56" spans="1:81">
+    <row r="56" spans="1:82">
       <c r="A56" s="2">
         <v>38214</v>
       </c>
@@ -14105,8 +14270,11 @@
       <c r="CC56">
         <v>83.29000000000001</v>
       </c>
+      <c r="CD56">
+        <v>83.29000000000001</v>
+      </c>
     </row>
-    <row r="57" spans="1:81">
+    <row r="57" spans="1:82">
       <c r="A57" s="2">
         <v>38306</v>
       </c>
@@ -14350,8 +14518,11 @@
       <c r="CC57">
         <v>83.28</v>
       </c>
+      <c r="CD57">
+        <v>83.28</v>
+      </c>
     </row>
-    <row r="58" spans="1:81">
+    <row r="58" spans="1:82">
       <c r="A58" s="2">
         <v>38398</v>
       </c>
@@ -14595,8 +14766,11 @@
       <c r="CC58">
         <v>83.45999999999999</v>
       </c>
+      <c r="CD58">
+        <v>83.45999999999999</v>
+      </c>
     </row>
-    <row r="59" spans="1:81">
+    <row r="59" spans="1:82">
       <c r="A59" s="2">
         <v>38488</v>
       </c>
@@ -14837,8 +15011,11 @@
       <c r="CC59">
         <v>83.83</v>
       </c>
+      <c r="CD59">
+        <v>83.83</v>
+      </c>
     </row>
-    <row r="60" spans="1:81">
+    <row r="60" spans="1:82">
       <c r="A60" s="2">
         <v>38579</v>
       </c>
@@ -15076,8 +15253,11 @@
       <c r="CC60">
         <v>84.41</v>
       </c>
+      <c r="CD60">
+        <v>84.41</v>
+      </c>
     </row>
-    <row r="61" spans="1:81">
+    <row r="61" spans="1:82">
       <c r="A61" s="2">
         <v>38671</v>
       </c>
@@ -15312,8 +15492,11 @@
       <c r="CC61">
         <v>84.93000000000001</v>
       </c>
+      <c r="CD61">
+        <v>84.93000000000001</v>
+      </c>
     </row>
-    <row r="62" spans="1:81">
+    <row r="62" spans="1:82">
       <c r="A62" s="2">
         <v>38763</v>
       </c>
@@ -15545,8 +15728,11 @@
       <c r="CC62">
         <v>85.81</v>
       </c>
+      <c r="CD62">
+        <v>85.81</v>
+      </c>
     </row>
-    <row r="63" spans="1:81">
+    <row r="63" spans="1:82">
       <c r="A63" s="2">
         <v>38853</v>
       </c>
@@ -15775,8 +15961,11 @@
       <c r="CC63">
         <v>87.3</v>
       </c>
+      <c r="CD63">
+        <v>87.29000000000001</v>
+      </c>
     </row>
-    <row r="64" spans="1:81">
+    <row r="64" spans="1:82">
       <c r="A64" s="2">
         <v>38944</v>
       </c>
@@ -16002,8 +16191,11 @@
       <c r="CC64">
         <v>88.15000000000001</v>
       </c>
+      <c r="CD64">
+        <v>88.15000000000001</v>
+      </c>
     </row>
-    <row r="65" spans="1:81">
+    <row r="65" spans="1:82">
       <c r="A65" s="2">
         <v>39036</v>
       </c>
@@ -16226,8 +16418,11 @@
       <c r="CC65">
         <v>89.33</v>
       </c>
+      <c r="CD65">
+        <v>89.33</v>
+      </c>
     </row>
-    <row r="66" spans="1:81">
+    <row r="66" spans="1:82">
       <c r="A66" s="2">
         <v>39128</v>
       </c>
@@ -16447,8 +16642,11 @@
       <c r="CC66">
         <v>89.59</v>
       </c>
+      <c r="CD66">
+        <v>89.59</v>
+      </c>
     </row>
-    <row r="67" spans="1:81">
+    <row r="67" spans="1:82">
       <c r="A67" s="2">
         <v>39218</v>
       </c>
@@ -16665,8 +16863,11 @@
       <c r="CC67">
         <v>90.48999999999999</v>
       </c>
+      <c r="CD67">
+        <v>90.48999999999999</v>
+      </c>
     </row>
-    <row r="68" spans="1:81">
+    <row r="68" spans="1:82">
       <c r="A68" s="2">
         <v>39309</v>
       </c>
@@ -16880,8 +17081,11 @@
       <c r="CC68">
         <v>90.94</v>
       </c>
+      <c r="CD68">
+        <v>90.94</v>
+      </c>
     </row>
-    <row r="69" spans="1:81">
+    <row r="69" spans="1:82">
       <c r="A69" s="2">
         <v>39401</v>
       </c>
@@ -17092,8 +17296,11 @@
       <c r="CC69">
         <v>91.7</v>
       </c>
+      <c r="CD69">
+        <v>91.7</v>
+      </c>
     </row>
-    <row r="70" spans="1:81">
+    <row r="70" spans="1:82">
       <c r="A70" s="2">
         <v>39493</v>
       </c>
@@ -17301,8 +17508,11 @@
       <c r="CC70">
         <v>92.17</v>
       </c>
+      <c r="CD70">
+        <v>92.17</v>
+      </c>
     </row>
-    <row r="71" spans="1:81">
+    <row r="71" spans="1:82">
       <c r="A71" s="2">
         <v>39584</v>
       </c>
@@ -17507,8 +17717,11 @@
       <c r="CC71">
         <v>91.97</v>
       </c>
+      <c r="CD71">
+        <v>91.97</v>
+      </c>
     </row>
-    <row r="72" spans="1:81">
+    <row r="72" spans="1:82">
       <c r="A72" s="2">
         <v>39675</v>
       </c>
@@ -17710,8 +17923,11 @@
       <c r="CC72">
         <v>91.33</v>
       </c>
+      <c r="CD72">
+        <v>91.33</v>
+      </c>
     </row>
-    <row r="73" spans="1:81">
+    <row r="73" spans="1:82">
       <c r="A73" s="2">
         <v>39767</v>
       </c>
@@ -17910,8 +18126,11 @@
       <c r="CC73">
         <v>89.67</v>
       </c>
+      <c r="CD73">
+        <v>89.67</v>
+      </c>
     </row>
-    <row r="74" spans="1:81">
+    <row r="74" spans="1:82">
       <c r="A74" s="2">
         <v>39859</v>
       </c>
@@ -18107,8 +18326,11 @@
       <c r="CC74">
         <v>85.09</v>
       </c>
+      <c r="CD74">
+        <v>85.09</v>
+      </c>
     </row>
-    <row r="75" spans="1:81">
+    <row r="75" spans="1:82">
       <c r="A75" s="2">
         <v>39949</v>
       </c>
@@ -18301,8 +18523,11 @@
       <c r="CC75">
         <v>85.27</v>
       </c>
+      <c r="CD75">
+        <v>85.27</v>
+      </c>
     </row>
-    <row r="76" spans="1:81">
+    <row r="76" spans="1:82">
       <c r="A76" s="2">
         <v>40040</v>
       </c>
@@ -18492,8 +18717,11 @@
       <c r="CC76">
         <v>85.81999999999999</v>
       </c>
+      <c r="CD76">
+        <v>85.81999999999999</v>
+      </c>
     </row>
-    <row r="77" spans="1:81">
+    <row r="77" spans="1:82">
       <c r="A77" s="2">
         <v>40132</v>
       </c>
@@ -18680,8 +18908,11 @@
       <c r="CC77">
         <v>86.45</v>
       </c>
+      <c r="CD77">
+        <v>86.45</v>
+      </c>
     </row>
-    <row r="78" spans="1:81">
+    <row r="78" spans="1:82">
       <c r="A78" s="2">
         <v>40224</v>
       </c>
@@ -18865,8 +19096,11 @@
       <c r="CC78">
         <v>87.81999999999999</v>
       </c>
+      <c r="CD78">
+        <v>87.81999999999999</v>
+      </c>
     </row>
-    <row r="79" spans="1:81">
+    <row r="79" spans="1:82">
       <c r="A79" s="2">
         <v>40314</v>
       </c>
@@ -19047,8 +19281,11 @@
       <c r="CC79">
         <v>89.23999999999999</v>
       </c>
+      <c r="CD79">
+        <v>89.25</v>
+      </c>
     </row>
-    <row r="80" spans="1:81">
+    <row r="80" spans="1:82">
       <c r="A80" s="2">
         <v>40405</v>
       </c>
@@ -19226,8 +19463,11 @@
       <c r="CC80">
         <v>90.12</v>
       </c>
+      <c r="CD80">
+        <v>90.12</v>
+      </c>
     </row>
-    <row r="81" spans="1:81">
+    <row r="81" spans="1:82">
       <c r="A81" s="2">
         <v>40497</v>
       </c>
@@ -19402,8 +19642,11 @@
       <c r="CC81">
         <v>90.65000000000001</v>
       </c>
+      <c r="CD81">
+        <v>90.65000000000001</v>
+      </c>
     </row>
-    <row r="82" spans="1:81">
+    <row r="82" spans="1:82">
       <c r="A82" s="2">
         <v>40589</v>
       </c>
@@ -19575,8 +19818,11 @@
       <c r="CC82">
         <v>92.45</v>
       </c>
+      <c r="CD82">
+        <v>92.45</v>
+      </c>
     </row>
-    <row r="83" spans="1:81">
+    <row r="83" spans="1:82">
       <c r="A83" s="2">
         <v>40679</v>
       </c>
@@ -19745,8 +19991,11 @@
       <c r="CC83">
         <v>92.62</v>
       </c>
+      <c r="CD83">
+        <v>92.62</v>
+      </c>
     </row>
-    <row r="84" spans="1:81">
+    <row r="84" spans="1:82">
       <c r="A84" s="2">
         <v>40770</v>
       </c>
@@ -19915,8 +20164,11 @@
       <c r="CC84">
         <v>93.23999999999999</v>
       </c>
+      <c r="CD84">
+        <v>93.23999999999999</v>
+      </c>
     </row>
-    <row r="85" spans="1:81">
+    <row r="85" spans="1:82">
       <c r="A85" s="2">
         <v>40862</v>
       </c>
@@ -20082,8 +20334,11 @@
       <c r="CC85">
         <v>93.23999999999999</v>
       </c>
+      <c r="CD85">
+        <v>93.23999999999999</v>
+      </c>
     </row>
-    <row r="86" spans="1:81">
+    <row r="86" spans="1:82">
       <c r="A86" s="2">
         <v>40954</v>
       </c>
@@ -20246,8 +20501,11 @@
       <c r="CC86">
         <v>93.41</v>
       </c>
+      <c r="CD86">
+        <v>93.41</v>
+      </c>
     </row>
-    <row r="87" spans="1:81">
+    <row r="87" spans="1:82">
       <c r="A87" s="2">
         <v>41045</v>
       </c>
@@ -20407,8 +20665,11 @@
       <c r="CC87">
         <v>93.59</v>
       </c>
+      <c r="CD87">
+        <v>93.59999999999999</v>
+      </c>
     </row>
-    <row r="88" spans="1:81">
+    <row r="88" spans="1:82">
       <c r="A88" s="2">
         <v>41136</v>
       </c>
@@ -20565,8 +20826,11 @@
       <c r="CC88">
         <v>93.77</v>
       </c>
+      <c r="CD88">
+        <v>93.77</v>
+      </c>
     </row>
-    <row r="89" spans="1:81">
+    <row r="89" spans="1:82">
       <c r="A89" s="2">
         <v>41228</v>
       </c>
@@ -20720,8 +20984,11 @@
       <c r="CC89">
         <v>93.39</v>
       </c>
+      <c r="CD89">
+        <v>93.39</v>
+      </c>
     </row>
-    <row r="90" spans="1:81">
+    <row r="90" spans="1:82">
       <c r="A90" s="2">
         <v>41320</v>
       </c>
@@ -20872,8 +21139,11 @@
       <c r="CC90">
         <v>93.05</v>
       </c>
+      <c r="CD90">
+        <v>93.05</v>
+      </c>
     </row>
-    <row r="91" spans="1:81">
+    <row r="91" spans="1:82">
       <c r="A91" s="2">
         <v>41410</v>
       </c>
@@ -21021,8 +21291,11 @@
       <c r="CC91">
         <v>93.97</v>
       </c>
+      <c r="CD91">
+        <v>93.97</v>
+      </c>
     </row>
-    <row r="92" spans="1:81">
+    <row r="92" spans="1:82">
       <c r="A92" s="2">
         <v>41501</v>
       </c>
@@ -21167,8 +21440,11 @@
       <c r="CC92">
         <v>94.48999999999999</v>
       </c>
+      <c r="CD92">
+        <v>94.48999999999999</v>
+      </c>
     </row>
-    <row r="93" spans="1:81">
+    <row r="93" spans="1:82">
       <c r="A93" s="2">
         <v>41593</v>
       </c>
@@ -21310,8 +21586,11 @@
       <c r="CC93">
         <v>94.92</v>
       </c>
+      <c r="CD93">
+        <v>94.92</v>
+      </c>
     </row>
-    <row r="94" spans="1:81">
+    <row r="94" spans="1:82">
       <c r="A94" s="2">
         <v>41685</v>
       </c>
@@ -21450,8 +21729,11 @@
       <c r="CC94">
         <v>95.98</v>
       </c>
+      <c r="CD94">
+        <v>95.98</v>
+      </c>
     </row>
-    <row r="95" spans="1:81">
+    <row r="95" spans="1:82">
       <c r="A95" s="2">
         <v>41775</v>
       </c>
@@ -21587,8 +21869,11 @@
       <c r="CC95">
         <v>95.64</v>
       </c>
+      <c r="CD95">
+        <v>95.64</v>
+      </c>
     </row>
-    <row r="96" spans="1:81">
+    <row r="96" spans="1:82">
       <c r="A96" s="2">
         <v>41866</v>
       </c>
@@ -21724,8 +22009,11 @@
       <c r="CC96">
         <v>96.25</v>
       </c>
+      <c r="CD96">
+        <v>96.25</v>
+      </c>
     </row>
-    <row r="97" spans="1:81">
+    <row r="97" spans="1:82">
       <c r="A97" s="2">
         <v>41958</v>
       </c>
@@ -21858,8 +22146,11 @@
       <c r="CC97">
         <v>96.95999999999999</v>
       </c>
+      <c r="CD97">
+        <v>96.95999999999999</v>
+      </c>
     </row>
-    <row r="98" spans="1:81">
+    <row r="98" spans="1:82">
       <c r="A98" s="2">
         <v>42050</v>
       </c>
@@ -21989,8 +22280,11 @@
       <c r="CC98">
         <v>96.58</v>
       </c>
+      <c r="CD98">
+        <v>96.59</v>
+      </c>
     </row>
-    <row r="99" spans="1:81">
+    <row r="99" spans="1:82">
       <c r="A99" s="2">
         <v>42140</v>
       </c>
@@ -22117,8 +22411,11 @@
       <c r="CC99">
         <v>97.23999999999999</v>
       </c>
+      <c r="CD99">
+        <v>97.23999999999999</v>
+      </c>
     </row>
-    <row r="100" spans="1:81">
+    <row r="100" spans="1:82">
       <c r="A100" s="2">
         <v>42231</v>
       </c>
@@ -22242,8 +22539,11 @@
       <c r="CC100">
         <v>97.62</v>
       </c>
+      <c r="CD100">
+        <v>97.62</v>
+      </c>
     </row>
-    <row r="101" spans="1:81">
+    <row r="101" spans="1:82">
       <c r="A101" s="2">
         <v>42323</v>
       </c>
@@ -22364,8 +22664,11 @@
       <c r="CC101">
         <v>97.87</v>
       </c>
+      <c r="CD101">
+        <v>97.87</v>
+      </c>
     </row>
-    <row r="102" spans="1:81">
+    <row r="102" spans="1:82">
       <c r="A102" s="2">
         <v>42415</v>
       </c>
@@ -22483,8 +22786,11 @@
       <c r="CC102">
         <v>98.97</v>
       </c>
+      <c r="CD102">
+        <v>98.98</v>
+      </c>
     </row>
-    <row r="103" spans="1:81">
+    <row r="103" spans="1:82">
       <c r="A103" s="2">
         <v>42506</v>
       </c>
@@ -22599,8 +22905,11 @@
       <c r="CC103">
         <v>99.39</v>
       </c>
+      <c r="CD103">
+        <v>99.38</v>
+      </c>
     </row>
-    <row r="104" spans="1:81">
+    <row r="104" spans="1:82">
       <c r="A104" s="2">
         <v>42597</v>
       </c>
@@ -22712,8 +23021,11 @@
       <c r="CC104">
         <v>99.58</v>
       </c>
+      <c r="CD104">
+        <v>99.58</v>
+      </c>
     </row>
-    <row r="105" spans="1:81">
+    <row r="105" spans="1:82">
       <c r="A105" s="2">
         <v>42689</v>
       </c>
@@ -22822,8 +23134,11 @@
       <c r="CC105">
         <v>99.98999999999999</v>
       </c>
+      <c r="CD105">
+        <v>99.98999999999999</v>
+      </c>
     </row>
-    <row r="106" spans="1:81">
+    <row r="106" spans="1:82">
       <c r="A106" s="2">
         <v>42781</v>
       </c>
@@ -22929,8 +23244,11 @@
       <c r="CC106">
         <v>101.21</v>
       </c>
+      <c r="CD106">
+        <v>101.22</v>
+      </c>
     </row>
-    <row r="107" spans="1:81">
+    <row r="107" spans="1:82">
       <c r="A107" s="2">
         <v>42871</v>
       </c>
@@ -23033,8 +23351,11 @@
       <c r="CC107">
         <v>102.19</v>
       </c>
+      <c r="CD107">
+        <v>102.19</v>
+      </c>
     </row>
-    <row r="108" spans="1:81">
+    <row r="108" spans="1:82">
       <c r="A108" s="2">
         <v>42962</v>
       </c>
@@ -23134,8 +23455,11 @@
       <c r="CC108">
         <v>103.26</v>
       </c>
+      <c r="CD108">
+        <v>103.26</v>
+      </c>
     </row>
-    <row r="109" spans="1:81">
+    <row r="109" spans="1:82">
       <c r="A109" s="2">
         <v>43054</v>
       </c>
@@ -23232,8 +23556,11 @@
       <c r="CC109">
         <v>104.13</v>
       </c>
+      <c r="CD109">
+        <v>104.13</v>
+      </c>
     </row>
-    <row r="110" spans="1:81">
+    <row r="110" spans="1:82">
       <c r="A110" s="2">
         <v>43146</v>
       </c>
@@ -23327,8 +23654,11 @@
       <c r="CC110">
         <v>103.66</v>
       </c>
+      <c r="CD110">
+        <v>103.67</v>
+      </c>
     </row>
-    <row r="111" spans="1:81">
+    <row r="111" spans="1:82">
       <c r="A111" s="2">
         <v>43236</v>
       </c>
@@ -23419,8 +23749,11 @@
       <c r="CC111">
         <v>104.21</v>
       </c>
+      <c r="CD111">
+        <v>104.2</v>
+      </c>
     </row>
-    <row r="112" spans="1:81">
+    <row r="112" spans="1:82">
       <c r="A112" s="2">
         <v>43327</v>
       </c>
@@ -23508,8 +23841,11 @@
       <c r="CC112">
         <v>103.65</v>
       </c>
+      <c r="CD112">
+        <v>103.65</v>
+      </c>
     </row>
-    <row r="113" spans="1:81">
+    <row r="113" spans="1:82">
       <c r="A113" s="2">
         <v>43419</v>
       </c>
@@ -23594,8 +23930,11 @@
       <c r="CC113">
         <v>104.34</v>
       </c>
+      <c r="CD113">
+        <v>104.35</v>
+      </c>
     </row>
-    <row r="114" spans="1:81">
+    <row r="114" spans="1:82">
       <c r="A114" s="2">
         <v>43511</v>
       </c>
@@ -23677,8 +24016,11 @@
       <c r="CC114">
         <v>104.64</v>
       </c>
+      <c r="CD114">
+        <v>104.65</v>
+      </c>
     </row>
-    <row r="115" spans="1:81">
+    <row r="115" spans="1:82">
       <c r="A115" s="2">
         <v>43601</v>
       </c>
@@ -23757,8 +24099,11 @@
       <c r="CC115">
         <v>104.54</v>
       </c>
+      <c r="CD115">
+        <v>104.54</v>
+      </c>
     </row>
-    <row r="116" spans="1:81">
+    <row r="116" spans="1:82">
       <c r="A116" s="2">
         <v>43692</v>
       </c>
@@ -23834,8 +24179,11 @@
       <c r="CC116">
         <v>104.93</v>
       </c>
+      <c r="CD116">
+        <v>104.93</v>
+      </c>
     </row>
-    <row r="117" spans="1:81">
+    <row r="117" spans="1:82">
       <c r="A117" s="2">
         <v>43784</v>
       </c>
@@ -23908,8 +24256,11 @@
       <c r="CC117">
         <v>104.76</v>
       </c>
+      <c r="CD117">
+        <v>104.77</v>
+      </c>
     </row>
-    <row r="118" spans="1:81">
+    <row r="118" spans="1:82">
       <c r="A118" s="2">
         <v>43876</v>
       </c>
@@ -23979,8 +24330,11 @@
       <c r="CC118">
         <v>102.95</v>
       </c>
+      <c r="CD118">
+        <v>102.95</v>
+      </c>
     </row>
-    <row r="119" spans="1:81">
+    <row r="119" spans="1:82">
       <c r="A119" s="2">
         <v>43967</v>
       </c>
@@ -24047,8 +24401,11 @@
       <c r="CC119">
         <v>93.06</v>
       </c>
+      <c r="CD119">
+        <v>93.06</v>
+      </c>
     </row>
-    <row r="120" spans="1:81">
+    <row r="120" spans="1:82">
       <c r="A120" s="2">
         <v>44058</v>
       </c>
@@ -24112,8 +24469,11 @@
       <c r="CC120">
         <v>101.11</v>
       </c>
+      <c r="CD120">
+        <v>101.11</v>
+      </c>
     </row>
-    <row r="121" spans="1:81">
+    <row r="121" spans="1:82">
       <c r="A121" s="2">
         <v>44150</v>
       </c>
@@ -24174,8 +24534,11 @@
       <c r="CC121">
         <v>102</v>
       </c>
+      <c r="CD121">
+        <v>102</v>
+      </c>
     </row>
-    <row r="122" spans="1:81">
+    <row r="122" spans="1:82">
       <c r="A122" s="2">
         <v>44242</v>
       </c>
@@ -24233,8 +24596,11 @@
       <c r="CC122">
         <v>101.54</v>
       </c>
+      <c r="CD122">
+        <v>101.54</v>
+      </c>
     </row>
-    <row r="123" spans="1:81">
+    <row r="123" spans="1:82">
       <c r="A123" s="2">
         <v>44332</v>
       </c>
@@ -24289,8 +24655,11 @@
       <c r="CC123">
         <v>103.49</v>
       </c>
+      <c r="CD123">
+        <v>103.49</v>
+      </c>
     </row>
-    <row r="124" spans="1:81">
+    <row r="124" spans="1:82">
       <c r="A124" s="2">
         <v>44423</v>
       </c>
@@ -24342,8 +24711,11 @@
       <c r="CC124">
         <v>104.79</v>
       </c>
+      <c r="CD124">
+        <v>104.79</v>
+      </c>
     </row>
-    <row r="125" spans="1:81">
+    <row r="125" spans="1:82">
       <c r="A125" s="2">
         <v>44515</v>
       </c>
@@ -24392,8 +24764,11 @@
       <c r="CC125">
         <v>105.3</v>
       </c>
+      <c r="CD125">
+        <v>105.3</v>
+      </c>
     </row>
-    <row r="126" spans="1:81">
+    <row r="126" spans="1:82">
       <c r="A126" s="2">
         <v>44607</v>
       </c>
@@ -24439,8 +24814,11 @@
       <c r="CC126">
         <v>105.92</v>
       </c>
+      <c r="CD126">
+        <v>105.91</v>
+      </c>
     </row>
-    <row r="127" spans="1:81">
+    <row r="127" spans="1:82">
       <c r="A127" s="2">
         <v>44697</v>
       </c>
@@ -24483,8 +24861,11 @@
       <c r="CC127">
         <v>105.75</v>
       </c>
+      <c r="CD127">
+        <v>105.76</v>
+      </c>
     </row>
-    <row r="128" spans="1:81">
+    <row r="128" spans="1:82">
       <c r="A128" s="2">
         <v>44788</v>
       </c>
@@ -24524,8 +24905,11 @@
       <c r="CC128">
         <v>106.36</v>
       </c>
+      <c r="CD128">
+        <v>106.36</v>
+      </c>
     </row>
-    <row r="129" spans="1:81">
+    <row r="129" spans="1:82">
       <c r="A129" s="2">
         <v>44880</v>
       </c>
@@ -24562,8 +24946,11 @@
       <c r="CC129">
         <v>106.44</v>
       </c>
+      <c r="CD129">
+        <v>106.44</v>
+      </c>
     </row>
-    <row r="130" spans="1:81">
+    <row r="130" spans="1:82">
       <c r="A130" s="2">
         <v>44972</v>
       </c>
@@ -24597,8 +24984,11 @@
       <c r="CC130">
         <v>106.03</v>
       </c>
+      <c r="CD130">
+        <v>106.02</v>
+      </c>
     </row>
-    <row r="131" spans="1:81">
+    <row r="131" spans="1:82">
       <c r="A131" s="2">
         <v>45062</v>
       </c>
@@ -24629,8 +25019,11 @@
       <c r="CC131">
         <v>105.26</v>
       </c>
+      <c r="CD131">
+        <v>105.27</v>
+      </c>
     </row>
-    <row r="132" spans="1:81">
+    <row r="132" spans="1:82">
       <c r="A132" s="2">
         <v>45153</v>
       </c>
@@ -24658,8 +25051,11 @@
       <c r="CC132">
         <v>105.45</v>
       </c>
+      <c r="CD132">
+        <v>105.45</v>
+      </c>
     </row>
-    <row r="133" spans="1:81">
+    <row r="133" spans="1:82">
       <c r="A133" s="2">
         <v>45245</v>
       </c>
@@ -24684,8 +25080,11 @@
       <c r="CC133">
         <v>106.41</v>
       </c>
+      <c r="CD133">
+        <v>106.4</v>
+      </c>
     </row>
-    <row r="134" spans="1:81">
+    <row r="134" spans="1:82">
       <c r="A134" s="2">
         <v>45337</v>
       </c>
@@ -24707,8 +25106,11 @@
       <c r="CC134">
         <v>105.6</v>
       </c>
+      <c r="CD134">
+        <v>105.59</v>
+      </c>
     </row>
-    <row r="135" spans="1:81">
+    <row r="135" spans="1:82">
       <c r="A135" s="2">
         <v>45428</v>
       </c>
@@ -24727,8 +25129,11 @@
       <c r="CC135">
         <v>105.43</v>
       </c>
+      <c r="CD135">
+        <v>105.44</v>
+      </c>
     </row>
-    <row r="136" spans="1:81">
+    <row r="136" spans="1:82">
       <c r="A136" s="2">
         <v>45519</v>
       </c>
@@ -24744,8 +25149,11 @@
       <c r="CC136">
         <v>105.04</v>
       </c>
+      <c r="CD136">
+        <v>105.04</v>
+      </c>
     </row>
-    <row r="137" spans="1:81">
+    <row r="137" spans="1:82">
       <c r="A137" s="2">
         <v>45611</v>
       </c>
@@ -24758,8 +25166,11 @@
       <c r="CC137">
         <v>104.75</v>
       </c>
+      <c r="CD137">
+        <v>104.75</v>
+      </c>
     </row>
-    <row r="138" spans="1:81">
+    <row r="138" spans="1:82">
       <c r="A138" s="2">
         <v>45703</v>
       </c>
@@ -24769,13 +25180,27 @@
       <c r="CC138">
         <v>105.34</v>
       </c>
+      <c r="CD138">
+        <v>105.29</v>
+      </c>
     </row>
-    <row r="139" spans="1:81">
+    <row r="139" spans="1:82">
       <c r="A139" s="2">
         <v>45793</v>
       </c>
       <c r="CC139">
         <v>105.13</v>
+      </c>
+      <c r="CD139">
+        <v>105.19</v>
+      </c>
+    </row>
+    <row r="140" spans="1:82">
+      <c r="A140" s="2">
+        <v>45884</v>
+      </c>
+      <c r="CD140">
+        <v>105.26</v>
       </c>
     </row>
   </sheetData>
